--- a/biology/Médecine/Tomodensitométrie/Tomodensitométrie.xlsx
+++ b/biology/Médecine/Tomodensitométrie/Tomodensitométrie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tomodensitom%C3%A9trie</t>
+          <t>Tomodensitométrie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La tomodensitométrie (TDM), dite aussi scanographie, tomographie axiale calculée par ordinateur (TACO), CT-scan (CT : computed tomography), CAT-scan (CAT : computer-assisted tomography), ou simplement scanner ou scanneur pour l'appareil[a], est une technique d'imagerie médicale qui consiste à mesurer l'absorption des rayons X par les tissus puis, par traitement informatique, à numériser et enfin reconstruire des images 2D ou 3D des structures anatomiques. Pour acquérir les données, on emploie la technique d'analyse tomographique ou « par coupes », en soumettant le patient au balayage d'un faisceau de rayons X.
 Bien que la possibilité théorique de créer de tels appareils ait été connue depuis le début du XXe siècle, ce n'est qu'au début des années 1970 qu'apparaissent les premiers imageurs couplés à, ou « assistés » par, des ordinateurs suffisamment puissants pour être capables de réaliser rapidement les calculs nécessaires à la reconstruction des images. Pour la mise au point de cette technique, Godfrey Newbold Hounsfield et Allan MacLeod Cormack ont été récompensés par le prix Nobel de physiologie ou médecine en 1979.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tomodensitom%C3%A9trie</t>
+          <t>Tomodensitométrie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,10 +526,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le principe de la tomodensitométrie repose sur le théorème de Radon (1917) qui décrit comment il est possible de reconstruire la géométrie bidimensionnelle d'un objet à partir d'une série de projections mesurées tout autour de celui-ci. Cette méthode peut être étendue à la reconstruction de la tomographie interne d'un objet à partir de la façon dont les rayons le traversant sont absorbés suivant leurs angles de pénétration. Toutefois, les calculs nécessaires à cette technique la rendaient impraticable avant l'avènement des ordinateurs. L'ordinateur attribue à chaque pixel d'image une valeur d'échelle de gris proportionnelle à l'absorption des rayons X par le volume corporel correspondant. La densité mesurée en unités Hounsfield (UH) va de -1000 pour l'air à +1000 pour l'os dense cortical, en passant par -50 pour la graisse et 0 pour l'eau.
-Le premier scanner à rayons X a été mis au point au début des années 1970 par un ingénieur britannique travaillant dans un laboratoire financé par EMI, Godfrey Newbold Hounsfield[1], d'après les travaux publiés quelques années auparavant par un physicien américain, Allan MacLeod Cormack. Ces deux scientifiques ont ainsi obtenu le prix Nobel de physiologie ou médecine en 1979 pour le « développement de la tomographie axiale calculée ».
+Le premier scanner à rayons X a été mis au point au début des années 1970 par un ingénieur britannique travaillant dans un laboratoire financé par EMI, Godfrey Newbold Hounsfield, d'après les travaux publiés quelques années auparavant par un physicien américain, Allan MacLeod Cormack. Ces deux scientifiques ont ainsi obtenu le prix Nobel de physiologie ou médecine en 1979 pour le « développement de la tomographie axiale calculée ».
 Les premiers prototypes de tomodensitomètre ne permettaient d'« imager » que le cerveau au moyen d'une série de capteurs ou détecteurs disposés en arc de cercle autour de la tête. Pour réaliser une seule image sur ces appareils, il fallait acquérir le signal pendant plusieurs minutes. L'ordinateur auquel ils étaient couplés, nécessitait deux heures et demie pour traiter chaque coupe ou tomographie. Ces images tomodensitométriques du cerveau permirent de visualiser, pour la première fois en imagerie, le tissu cérébral et les ventricules remplis de liquide cérébrospinal. Les appareils suivants permirent ensuite de produire des images de toutes les parties du corps humain. D'une matrice grossière de 80 × 80, on est passé rapidement à des pixels plus petits, jusqu'à une résolution d'images de 512 × 512.
 </t>
         </is>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tomodensitom%C3%A9trie</t>
+          <t>Tomodensitométrie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Les différents types d'appareils</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les anciennes générations de scanners à acquisition séquentielle ne permettaient d'acquérir que des coupes successives isolées : la table mobile sur laquelle le patient est étendu était déplacée de quelques millimètres dans la structure circulaire ou anneau puis immobilisée pendant la mesure, et ainsi de suite pour chaque niveau d'acquisition assimilé à une coupe transversale. Les anciennes générations de tubes à rayons X avaient en outre une capacité d'évacuation de la chaleur trop faible pour être compatible avec une cadence d'acquisition élevée.
 Dans les scanners spiralés ou hélicoïdaux disponibles depuis les années 1990, l'émission des rayons X est continue durant toute la séquence, la table d'examen progressant à vitesse constante et fixée dans l'anneau. La réalisation de l'examen est beaucoup plus rapide (de quelques centaines de millisecondes à quelques secondes), et plus confortable dans beaucoup de cas (apnée de quelques secondes pour les examens thoraciques, au lieu de plusieurs apnées correspondant à chaque coupe) et fournit une meilleure qualité d'images. La durée de révolution du tube émetteur est passée de 2 secondes à 0,25 seconde sur les appareils de dernière génération. Les acquisitions rapides ont permis le développement de l’angioscanner, technique non invasive d'exploration des vaisseaux sanguins durant le court temps de transit vasculaire du produit de contraste après son injection intraveineuse, supplantant l'angiographie invasive dans maintes indications à visée diagnostique.
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tomodensitom%C3%A9trie</t>
+          <t>Tomodensitométrie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,11 +598,13 @@
           <t>Réalisation de l'examen tomodensitométrique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'examen standard peut être fait dans toute circonstance, à condition que le patient puisse être immobile sur la table une dizaine de secondes. Il n'y a pas de nécessité d'être à jeun sauf rares explorations particulières. En cas de grossesse, la justification (indication) de l'examen et son rapport bénéfice sur risque doivent être soigneusement évalués, du fait de la sensibilité particulière du fœtus à l'irradiation, particulièrement en tout début de grossesse.
 L'examen peut nécessiter une injection intraveineuse d'un produit de contraste iodé.
-On s'assure que le patient a une fonction rénale correcte (taux sanguin de créatinine, et débit de filtration glomérulaire ou clairance de la créatinine, normaux) et qu'il n'existe pas d'antécédent personnel d'allergie à un produit de contraste iodé. Dans le cas contraire, soit l'examen est réalisé sans produit de contraste, soit l'examen est remplacé par une autre technique, soit il est reporté le temps que le patient se soit soumis aux tests d'allergologie, soit un traitement à visée préventive anti-allergique est administré au préalable par voie intraveineuse en cas d'examen urgent et sous haute surveillance. De plus, pour éviter une possible insuffisance rénale, le patient diabétique traité par des médicaments à base de metformine ou biguanides doit interrompre ce traitement anti-diabétique oral durant les 48 heures suivant l'administration de produit de contraste iodé, et le reprendre après vérification de l'absence d'apparition d'une insuffisance rénale (néphropathie aux produits de contraste)[2]. Il est recommandé pour tout patient, sauf contre-indication particulière, de bien s'hydrater par voie orale les heures précédant et la journée suivant l'examen.
+On s'assure que le patient a une fonction rénale correcte (taux sanguin de créatinine, et débit de filtration glomérulaire ou clairance de la créatinine, normaux) et qu'il n'existe pas d'antécédent personnel d'allergie à un produit de contraste iodé. Dans le cas contraire, soit l'examen est réalisé sans produit de contraste, soit l'examen est remplacé par une autre technique, soit il est reporté le temps que le patient se soit soumis aux tests d'allergologie, soit un traitement à visée préventive anti-allergique est administré au préalable par voie intraveineuse en cas d'examen urgent et sous haute surveillance. De plus, pour éviter une possible insuffisance rénale, le patient diabétique traité par des médicaments à base de metformine ou biguanides doit interrompre ce traitement anti-diabétique oral durant les 48 heures suivant l'administration de produit de contraste iodé, et le reprendre après vérification de l'absence d'apparition d'une insuffisance rénale (néphropathie aux produits de contraste). Il est recommandé pour tout patient, sauf contre-indication particulière, de bien s'hydrater par voie orale les heures précédant et la journée suivant l'examen.
 Une voie d'abord veineuse (cathéter court) est mise en place avant l'examen et le produit de contraste est injecté peu de temps avant l'acquisition.
 Au moment de l'injection du produit de contraste iodé (environ 70 % des examens), la majorité des patients ressentent une sensation de chaleur au niveau de la gorge et du pelvis, qui dure environ 10  à   30 secondes et qui est liée à la vasodilatation provoquée par l'hyper-osmolarité du produit.
 Durant l'acquisition, les images sont visualisées sur une console informatique par le manipulateur en électroradiologie médicale et par le médecin radiologue.
@@ -603,7 +621,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Tomodensitom%C3%A9trie</t>
+          <t>Tomodensitométrie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -621,20 +639,14 @@
           <t>Complications et précautions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La tomodensitométrie est un examen en théorie anodin. Il existe néanmoins quelques rares contre-indications liées à l'injection éventuelle de produit de contraste iodé : insuffisance rénale, contre-indication médicamenteuse (notamment les médicaments anti-diabétiques de type II comme la metformine), allergie avérée à un ou plusieurs produits de contraste iodés, l'allaitement et bien évidemment en cas de grossesse (sauf cas particulier comme la pelvimétrie prénatale ou s'il existe une urgence vitale) .
 Les jeunes enfants, avant quatre ans, ont souvent du mal à conserver l'immobilité et nécessitent une prémédication sédative ou une contention dans un matelas adapté.
 Chez les patients anxieux ou très agités non coopératifs, une prémédication anxiolytique ou sédative (on administre des médicaments pour réduire l'anxiété ou provoquer un sommeil court et léger) voire une brève anesthésie, permettent la réalisation de l'examen.
 Durant la grossesse, il faut éviter de principe l'exploration du pelvis ou l'utilisation de produit de contraste iodé mais le rapport bénéfice/risque doit être apprécié au cas par cas.
-Lors d'utilisation de produits de contraste iodés
-Le risque est celui d'une allergie au produit de contraste allant de la simple réaction cutanée (urticaire) au choc anaphylactique engageant le pronostic vital. Pour cette raison, on privilégie les produits de contraste iodés dits « non-ioniques », et le patient ayant bénéficié d'une injection de produit de contraste iodé est gardé en surveillance quelque temps après l'administration du produit. La seule prévention raisonnablement sécurisée est de proscrire définitivement l'administration du produit de contraste particulier qui a provoqué chez un patient une réaction adverse de type allergique. En pratique, on recommande de faire pratiquer des tests d'allergie par un allergologue, qui testera tous les produits de contrastes disponibles sur le marché et indiquera dans ses conclusions s'il apparaît que le patient réagit anormalement ou non à telle ou telle préparation. Le médecin radiologue évaluera le rapport bénéfice/risque vis-à-vis des produits auxquels le patient n'aura pas réagi anormalement, sachant qu'une allergie peut apparaître ultérieurement à un produit jusqu'alors jugé sans risque.
-Les produits de contraste iodés étant néphrotoxiques, il existe également une possible aggravation d'une insuffisance rénale préexistante. Les risques sont majorés en cas de diabète et de défaut d'hydratation.
-Irradiation
-Le risque est celui de développer un cancer à distance de l'examen.
-L'irradiation de la population par les rayons X utilisés en imagerie médicale a été multipliée par six aux États-Unis en un peu moins de 25 ans, la moitié des doses administrées étant imputée aux tomodensitomètres[3]. En France, elle a augmenté de 50 % entre 2002 et 2007[4]. L'augmentation de ces doses s'explique principalement par trois raisons : changement de nature des actes (augmentation du nombre d'examen fait par scanner), augmentation des doses pour obtenir une image plus contrastée, banalisation de l'acte de radiodiagnostic.
-Certains types d'examens, par la multiplicité des coupes requises, sont particulièrement irradiants comme le scanner des artères coronaires dont la dose peut atteindre, dans certains cas, 600 fois celle d'une simple radiographie pulmonaire[5]. Un examen complet du corps expose l'individu concerné à 20 mSv en une seule fois[b], soit l’équivalent de la dose de rayonnements maximum recommandée annuellement pour les salariés du nucléaire[4].
-Le risque individuel d'une telle exposition n'est pas nul et chaque indication d'examen doit donc être soigneusement pesée suivant le bénéfice attendu (directives de radioprotection). Ce risque peut être néanmoins estimé par des modélisations[7] ; selon la presse américaine, en 2010, au moins 400 patients aux États-Unis auraient été exposés à une sur-irradiation lors d'examens CT de perfusion du cerveau[8]. Le risque peut être quantifié statistiquement : il est d'autant plus élevé que le scanner a été réalisé chez un sujet jeune (enfant ou adolescent), avec un nombre de cancers augmenté de près d'un quart sur dix ans[9]. Ces chiffres devraient cependant diminuer, l'irradiation étant moindre qu'il y a quelques années.
 </t>
         </is>
       </c>
@@ -645,7 +657,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Tomodensitom%C3%A9trie</t>
+          <t>Tomodensitométrie</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -660,18 +672,98 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Complications et précautions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Lors d'utilisation de produits de contraste iodés</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le risque est celui d'une allergie au produit de contraste allant de la simple réaction cutanée (urticaire) au choc anaphylactique engageant le pronostic vital. Pour cette raison, on privilégie les produits de contraste iodés dits « non-ioniques », et le patient ayant bénéficié d'une injection de produit de contraste iodé est gardé en surveillance quelque temps après l'administration du produit. La seule prévention raisonnablement sécurisée est de proscrire définitivement l'administration du produit de contraste particulier qui a provoqué chez un patient une réaction adverse de type allergique. En pratique, on recommande de faire pratiquer des tests d'allergie par un allergologue, qui testera tous les produits de contrastes disponibles sur le marché et indiquera dans ses conclusions s'il apparaît que le patient réagit anormalement ou non à telle ou telle préparation. Le médecin radiologue évaluera le rapport bénéfice/risque vis-à-vis des produits auxquels le patient n'aura pas réagi anormalement, sachant qu'une allergie peut apparaître ultérieurement à un produit jusqu'alors jugé sans risque.
+Les produits de contraste iodés étant néphrotoxiques, il existe également une possible aggravation d'une insuffisance rénale préexistante. Les risques sont majorés en cas de diabète et de défaut d'hydratation.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tomodensitométrie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tomodensitom%C3%A9trie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Complications et précautions</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Irradiation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le risque est celui de développer un cancer à distance de l'examen.
+L'irradiation de la population par les rayons X utilisés en imagerie médicale a été multipliée par six aux États-Unis en un peu moins de 25 ans, la moitié des doses administrées étant imputée aux tomodensitomètres. En France, elle a augmenté de 50 % entre 2002 et 2007. L'augmentation de ces doses s'explique principalement par trois raisons : changement de nature des actes (augmentation du nombre d'examen fait par scanner), augmentation des doses pour obtenir une image plus contrastée, banalisation de l'acte de radiodiagnostic.
+Certains types d'examens, par la multiplicité des coupes requises, sont particulièrement irradiants comme le scanner des artères coronaires dont la dose peut atteindre, dans certains cas, 600 fois celle d'une simple radiographie pulmonaire. Un examen complet du corps expose l'individu concerné à 20 mSv en une seule fois[b], soit l’équivalent de la dose de rayonnements maximum recommandée annuellement pour les salariés du nucléaire.
+Le risque individuel d'une telle exposition n'est pas nul et chaque indication d'examen doit donc être soigneusement pesée suivant le bénéfice attendu (directives de radioprotection). Ce risque peut être néanmoins estimé par des modélisations ; selon la presse américaine, en 2010, au moins 400 patients aux États-Unis auraient été exposés à une sur-irradiation lors d'examens CT de perfusion du cerveau. Le risque peut être quantifié statistiquement : il est d'autant plus élevé que le scanner a été réalisé chez un sujet jeune (enfant ou adolescent), avec un nombre de cancers augmenté de près d'un quart sur dix ans. Ces chiffres devraient cependant diminuer, l'irradiation étant moindre qu'il y a quelques années.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tomodensitométrie</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tomodensitom%C3%A9trie</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Autres usages</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Contrôle-qualité dans l'industrie[10]
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Contrôle-qualité dans l'industrie
 Examen d'objets anciens (tableaux, objets d'art…).
-Exploration des restes fossiles, notamment en paléoneurologie pour l'observation des crânes fossilisés[11].
+Exploration des restes fossiles, notamment en paléoneurologie pour l'observation des crânes fossilisés.
 Examen de contenu à risque.
 Examen de contenants fermés (cercueils à momies, etc.).
-Examen de l'intérieur d'un tronc ou d'une pièce de bois l'intérieur de morceaux d'arbres[12] pour y observer les structures internes et épicormiques. Des recherches suisses[13] cherchent à engager la tomodensitométrie dans les scieries, afin d'optimiser les découpes. En passant une grume au travers d'un CT, il est possible de visualiser les nœuds internes du bois, et ainsi de procéder au sciage de manière à réduire les faiblesses des planches par un ajustement de leur position par rapport aux branches. Cette méthode n'est de loin pas encore généralisée, car très onéreuse.
-Numérisation 3D d'animaux congelés ou préservés dans un fluide conservateur[14]. L’injection d’iode dans certains organes d’un animal (grenouille par exemple) permet en outre de visualiser de manière très précise les muscles, glandes, le système nerveux, des œufs, des parasites, etc. Il est ainsi prévu de numériser environ 20 000 animaux conservés dans plus d'une quinzaine de musées américains à partir de septembre 2017, dans le cadre du projet « Open Exploration of Vertebrate Diversity in 3D » (plus souvent dénommé scan-all-vertebrates), doté de 2,5 millions de dollars et soutenu par la National Science Foundation. Un représentant de 80 % des genres de vertébrés connus sera traduit en image 3D et environ 1 000 spécimens seront colorés à l’iode pour montrer les tissus mous, tels que muscles, système circulatoire, cerveau, etc.[14]. Ces rendus 3D seront stockés dans la base « MorphoSource »[15] à l'Université Duke de Caroline du Nord[14]. Ils seront gratuitement disponibles à condition de ne pas en faire d’usage commercial au service de la Recherche dans des domaines tels que le biomimétisme, l'anatomie comparée, la biologie du développement, la biométrie, etc. Il devient ainsi possible d’étudier dans le monde entier les détails anatomiques des organismes uniques, rares ou menacés, à partir de seulement un ou deux spécimens connus[14]. Ces rendus 3D trouveront probablement aussi d'éventuelles valorisations pédagogiques via les imprimantes 3D et les casques de réalité virtuelle.</t>
+Examen de l'intérieur d'un tronc ou d'une pièce de bois l'intérieur de morceaux d'arbres pour y observer les structures internes et épicormiques. Des recherches suisses cherchent à engager la tomodensitométrie dans les scieries, afin d'optimiser les découpes. En passant une grume au travers d'un CT, il est possible de visualiser les nœuds internes du bois, et ainsi de procéder au sciage de manière à réduire les faiblesses des planches par un ajustement de leur position par rapport aux branches. Cette méthode n'est de loin pas encore généralisée, car très onéreuse.
+Numérisation 3D d'animaux congelés ou préservés dans un fluide conservateur. L’injection d’iode dans certains organes d’un animal (grenouille par exemple) permet en outre de visualiser de manière très précise les muscles, glandes, le système nerveux, des œufs, des parasites, etc. Il est ainsi prévu de numériser environ 20 000 animaux conservés dans plus d'une quinzaine de musées américains à partir de septembre 2017, dans le cadre du projet « Open Exploration of Vertebrate Diversity in 3D » (plus souvent dénommé scan-all-vertebrates), doté de 2,5 millions de dollars et soutenu par la National Science Foundation. Un représentant de 80 % des genres de vertébrés connus sera traduit en image 3D et environ 1 000 spécimens seront colorés à l’iode pour montrer les tissus mous, tels que muscles, système circulatoire, cerveau, etc.. Ces rendus 3D seront stockés dans la base « MorphoSource » à l'Université Duke de Caroline du Nord. Ils seront gratuitement disponibles à condition de ne pas en faire d’usage commercial au service de la Recherche dans des domaines tels que le biomimétisme, l'anatomie comparée, la biologie du développement, la biométrie, etc. Il devient ainsi possible d’étudier dans le monde entier les détails anatomiques des organismes uniques, rares ou menacés, à partir de seulement un ou deux spécimens connus. Ces rendus 3D trouveront probablement aussi d'éventuelles valorisations pédagogiques via les imprimantes 3D et les casques de réalité virtuelle.</t>
         </is>
       </c>
     </row>
